--- a/data/trans_camb/P15_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_1-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,02</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>14,52</t>
+          <t>4,99</t>
         </is>
       </c>
     </row>
@@ -729,57 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,73</t>
+          <t>0,39; 3,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,4</t>
+          <t>1,94; 6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 25,49</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,23</t>
+          <t>1,37; 5,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,71</t>
+          <t>4,06; 9,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,61</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,99</t>
+          <t>1,13; 3,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,51</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 6,22</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 17,74</t>
+          <t>3,56; 6,93</t>
         </is>
       </c>
     </row>
@@ -812,42 +758,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-71,58%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>193,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>585,58%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1210,6%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,82%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>269,25%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>924,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3071,15%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -890,32 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,61; 2451,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>307,43; 5477,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; 1672,74</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>216,5; 4412,21</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>926,3; 12371,03</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,16</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,2</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,06</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,21</t>
+          <t>8,72</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,21</t>
+          <t>-1,18; 0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,82</t>
+          <t>0,53; 3,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,34</t>
+          <t>6,66; 12,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 25,34</t>
+          <t>-2,01; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,14</t>
+          <t>0,63; 4,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,45</t>
+          <t>5,85; 10,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,56</t>
+          <t>-1,13; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 23,31</t>
+          <t>0,98; 3,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,36</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 3,56</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 11,02</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>17,49; 23,11</t>
+          <t>7,16; 10,78</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>186,69%</t>
+          <t>-24,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1591,56%</t>
+          <t>514,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7295,73%</t>
+          <t>2469,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15457,37%</t>
+          <t>-21,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,75%</t>
+          <t>257,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>208,03%</t>
+          <t>838,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>618,05%</t>
+          <t>-23,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1464,11%</t>
+          <t>320,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-32,91%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>335,83%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1249,9%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2789,33%</t>
+          <t>1262,07%</t>
         </is>
       </c>
     </row>
@@ -1156,42 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,05; 55,32</t>
+          <t>6,84; 1268,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,25; 536,74</t>
+          <t>194,4; 3404,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>272,57; 1376,77</t>
+          <t>-100,0; 383,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>700,88; 2958,69</t>
+          <t>38,12; 1488,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,61; 111,99</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>131,9; 758,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>669,32; 2574,13</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>1543,26; 5313,88</t>
+          <t>465,15; 5564,47</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,86</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,63</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,03</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>20,42</t>
+          <t>8,65</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,45</t>
+          <t>-2,27; 2,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,23</t>
+          <t>0,09; 5,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,46</t>
+          <t>4,45; 10,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 27,84</t>
+          <t>-1,97; 1,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,87</t>
+          <t>2,49; 7,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,71</t>
+          <t>6,93; 12,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,12</t>
+          <t>-1,24; 1,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 25,53</t>
+          <t>2,09; 5,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,28</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 6,27</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 11,33</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,88; 24,78</t>
+          <t>6,55; 10,57</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>171,01%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>740,97%</t>
+          <t>251,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1636,18%</t>
+          <t>640,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3975,81%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>461,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>940,04%</t>
+          <t>895,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1761,71%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3473,65%</t>
+          <t>357,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>849,32%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1708,42%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3712,33%</t>
+          <t>767,76%</t>
         </is>
       </c>
     </row>
@@ -1417,64 +1228,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97,77; —</t>
+          <t>-28,86; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>361,31; —</t>
+          <t>74,28; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>932,05; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,59; 1953,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>257,67; 4340,32</t>
+          <t>216,16; 3361,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>532,67; 6470,58</t>
+          <t>-76,17; 239,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1142,0; 12448,27</t>
+          <t>64,56; 1002,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 648,67</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>264,89; 2692,96</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>648,87; 5122,31</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1468,8; 11627,73</t>
+          <t>265,12; 2370,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,73</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>18,44</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 0,98</t>
+          <t>0,14; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,42</t>
+          <t>1,31; 6,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 23,64</t>
+          <t>-1,54; 0,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,05</t>
+          <t>1,12; 5,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,24</t>
+          <t>-0,48; 0,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,89; 18,4</t>
+          <t>1,59; 4,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,4</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 3,62</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>6,9; 9,16</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 20,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>184,96%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1059,04%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3610,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9115,58%</t>
+          <t>-67,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,95%</t>
+          <t>264,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>321,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>787,41%</t>
+          <t>-12,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1617,97%</t>
+          <t>512,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,19%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>453,53%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>1291,37%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>2963,4%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 1025,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>300,75; 4383,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1252,61; 13106,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2744,68; 30739,15</t>
+          <t>-100,0; 48,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 13,65</t>
+          <t>59,41; 762,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>155,03; 637,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>462,84; 1392,2</t>
+          <t>-71,23; 213,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>993,08; 2814,77</t>
+          <t>161,06; 1268,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 98,94</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>243,61; 815,31</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>812,69; 2256,39</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>1882,94; 4850,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 0,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 3,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 9,48</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 0,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 4,38</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 9,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 0,39</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 3,59</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 8,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>184,2%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1098,02%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3464,89%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-41,38%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>318,69%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>786,2%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>457,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1264,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-43,32; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>308,48; 4751,72</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1056,96; 13023,13</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-75,67; 43,28</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>144,58; 624,54</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>431,51; 1442,95</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-51,08; 86,21</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>251,75; 811,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>792,19; 2106,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
